--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263921.144878246</v>
+        <v>2265681.675181032</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.45987517072724</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114.5149250787132</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>56.10262951780803</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>88.81548672498832</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>60.32254061747914</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>50.7523198833055</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.53823624078101</v>
+        <v>274.284801359746</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969026</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537525</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>39.48754380658603</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021612383</v>
+        <v>8.321493021611886</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>79.60169075021591</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.19375294290109</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057557</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>264.3564437226754</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>143.7633541225849</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>156.6864193108305</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>34.44047701880672</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>134.452563354727</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.9742741983341</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576147</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>68.57766702465473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>80.88538973874932</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634792</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722632</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>90.64674755991192</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.13809394730878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="C2" t="n">
-        <v>716.9456069335542</v>
+        <v>414.0172523312946</v>
       </c>
       <c r="D2" t="n">
-        <v>527.5258219170694</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005845</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="T2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="U2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="V2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="W2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="X2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.9456069335542</v>
+        <v>549.2024635036619</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>575.6493193841522</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>426.714909722901</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>267.4774547174455</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>120.9428967443305</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652792</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.9382299012125</v>
+        <v>568.4538838350395</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>399.5177009071326</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>399.5177009071326</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>251.6046073247395</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>104.7146598268291</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484196</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430764</v>
+        <v>285.9838492295947</v>
       </c>
       <c r="N4" t="n">
-        <v>490.0533950377331</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>652.7915984742833</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>615.938338957512</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S4" t="n">
-        <v>615.938338957512</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T4" t="n">
-        <v>615.938338957512</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410271</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V4" t="n">
-        <v>365.5866947314522</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="W4" t="n">
-        <v>365.5866947314522</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="X4" t="n">
-        <v>365.5866947314522</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.5866947314522</v>
+        <v>750.1023486652792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.81375017629813</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="C5" t="n">
-        <v>47.54878059720166</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720166</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720166</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799819</v>
+        <v>304.9937496651349</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563002</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563002</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563002</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874495</v>
+        <v>80.99020340874659</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620509</v>
+        <v>211.2396305620545</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458626</v>
+        <v>409.7273242458682</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973773</v>
+        <v>662.2525653973856</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365679</v>
+        <v>923.4777373365789</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477524</v>
+        <v>1156.809998477538</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169724</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.91973781501</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.91973781501</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.420751151472</v>
+        <v>1249.42075115149</v>
       </c>
       <c r="T5" t="n">
-        <v>1036.295250913445</v>
+        <v>1249.42075115149</v>
       </c>
       <c r="U5" t="n">
-        <v>782.6341470691137</v>
+        <v>995.7596473071584</v>
       </c>
       <c r="V5" t="n">
-        <v>451.5712597255431</v>
+        <v>664.6967599635877</v>
       </c>
       <c r="W5" t="n">
-        <v>98.81375017629813</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="X5" t="n">
-        <v>98.81375017629813</v>
+        <v>311.9392504143383</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.81375017629813</v>
+        <v>311.9392504143383</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550.4496965895744</v>
+        <v>932.1328052907855</v>
       </c>
       <c r="C6" t="n">
-        <v>375.9966673084474</v>
+        <v>757.6797760096586</v>
       </c>
       <c r="D6" t="n">
-        <v>227.0622576471961</v>
+        <v>608.7453663484073</v>
       </c>
       <c r="E6" t="n">
-        <v>67.82480264174063</v>
+        <v>449.5079113429517</v>
       </c>
       <c r="F6" t="n">
-        <v>27.9383947563002</v>
+        <v>302.9733533698367</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9383947563002</v>
+        <v>165.7366073290006</v>
       </c>
       <c r="H6" t="n">
-        <v>27.9383947563002</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563002</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159142997</v>
+        <v>40.71784159143108</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379354</v>
+        <v>140.7147764379378</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824465</v>
+        <v>321.4955368824507</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158568</v>
+        <v>551.815025615863</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947598</v>
+        <v>802.639030794768</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887842</v>
+        <v>1009.874197887852</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411825</v>
+        <v>1156.865623411837</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.91973781501</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308331</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308331</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="T6" t="n">
-        <v>1388.514189308331</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="U6" t="n">
-        <v>1388.514189308331</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="V6" t="n">
-        <v>1388.514189308331</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="W6" t="n">
-        <v>1134.276832580129</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="X6" t="n">
-        <v>926.4253323745963</v>
+        <v>1308.108441075807</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.6650336096425</v>
+        <v>1100.348142310854</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236.1479958326502</v>
+        <v>513.2229432445187</v>
       </c>
       <c r="C7" t="n">
-        <v>67.21181290474328</v>
+        <v>344.2867603166117</v>
       </c>
       <c r="D7" t="n">
-        <v>67.21181290474328</v>
+        <v>344.2867603166117</v>
       </c>
       <c r="E7" t="n">
-        <v>33.68276952807551</v>
+        <v>196.3736667342186</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807551</v>
+        <v>196.3736667342186</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807551</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807551</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807551</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563002</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874683</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208626</v>
+        <v>358.3569215208647</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014253</v>
+        <v>589.9861665014284</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750219</v>
+        <v>821.5424021750262</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767882</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612027</v>
+        <v>1165.191378612033</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049267</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049267</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049267</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049267</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049267</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>928.0062098433806</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>638.58903980642</v>
+        <v>915.6639872182885</v>
       </c>
       <c r="X7" t="n">
-        <v>638.58903980642</v>
+        <v>915.6639872182885</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.7964606628899</v>
+        <v>694.8714080747584</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337128</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.669246337128</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.669246337128</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>977.8809937388842</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>566.8950889492767</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,22 +4804,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2404.070217985175</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2073.007330641604</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.80857831294</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337128</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400671</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121602</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782911</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.14053817977</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713837</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703069</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="17">
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6013,28 +6013,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>599.6019060180517</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>451.6888124356586</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>304.7988649377482</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.8089368603736</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>116.4012961287067</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463899009</v>
+        <v>41.92993463898915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213273</v>
+        <v>193.6499349213323</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.37941682721026</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393474</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>96.94647126761411</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>127.9379057921829</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.6938862346285</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>841152.2041509819</v>
+        <v>841152.204150982</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819955.4229552647</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552647</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675041</v>
@@ -26337,22 +26337,22 @@
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427081</v>
+        <v>178997.5061427132</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.870773124</v>
+        <v>301519.8707731194</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267187</v>
+        <v>41617.52445267316</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019628</v>
+        <v>73739.30240019513</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806977</v>
+        <v>229588.1389806964</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029152</v>
+        <v>69851.97930029187</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310032.2239649598</v>
+        <v>-310032.2239649596</v>
       </c>
       <c r="C6" t="n">
-        <v>137343.702974515</v>
+        <v>137343.7029745109</v>
       </c>
       <c r="D6" t="n">
-        <v>76168.45348730579</v>
+        <v>76168.4534873105</v>
       </c>
       <c r="E6" t="n">
-        <v>-17202.2090471481</v>
+        <v>-16889.56771822703</v>
       </c>
       <c r="F6" t="n">
-        <v>490283.2325773972</v>
+        <v>490595.8739063189</v>
       </c>
       <c r="G6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="H6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="I6" t="n">
-        <v>490283.2325773973</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="J6" t="n">
-        <v>441218.2878488531</v>
+        <v>441530.9291777743</v>
       </c>
       <c r="K6" t="n">
-        <v>448665.7081247254</v>
+        <v>448978.3494536458</v>
       </c>
       <c r="L6" t="n">
-        <v>416543.9301772012</v>
+        <v>416856.5715061236</v>
       </c>
       <c r="M6" t="n">
-        <v>357675.9388484707</v>
+        <v>357988.5801773921</v>
       </c>
       <c r="N6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="O6" t="n">
-        <v>490283.2325773975</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="P6" t="n">
-        <v>490283.2325773974</v>
+        <v>490595.8739063187</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955676</v>
+        <v>687.6696919955714</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537525</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26804,25 +26804,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826629</v>
+        <v>139.1997510826669</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219715</v>
+        <v>246.3952001219677</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874325</v>
+        <v>161.7043472874371</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462862</v>
+        <v>291.3548976462819</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874323</v>
+        <v>161.7043472874373</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462864</v>
+        <v>291.3548976462819</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874325</v>
+        <v>161.7043472874371</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462862</v>
+        <v>291.3548976462819</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>231.4395327103639</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>191.9840058854795</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>58.19357390960249</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>80.0611598479673</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>78.18644847772586</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27593,10 +27593,10 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>191.8151027063489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>314.520571887702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>138.253434881035</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397888</v>
+        <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908717</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426366051963</v>
+        <v>0.01103426365614268</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>105.5816685867979</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277721</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419615</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736376</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
         <v>194.2027622142185</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>126.1712944532616</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>113.2402097036681</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285478</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057074</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573322</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704886</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
@@ -27833,10 +27833,10 @@
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.16655461391559</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>267.7843486503691</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>94.35883081763149</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.698314381224416e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.43088606097896e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.43088606097896e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354039</v>
+        <v>2.764501274354054</v>
       </c>
       <c r="H5" t="n">
-        <v>28.3119486759783</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795342</v>
+        <v>106.5784353795348</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342063</v>
+        <v>234.6335900342076</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776128</v>
+        <v>351.6549289776148</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526253</v>
+        <v>436.2590348526277</v>
       </c>
       <c r="M5" t="n">
-        <v>485.422234390419</v>
+        <v>485.4222343904216</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361774</v>
+        <v>493.2768736361801</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893194</v>
+        <v>465.787364089322</v>
       </c>
       <c r="P5" t="n">
-        <v>397.538738878704</v>
+        <v>397.5387388787062</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369908999</v>
+        <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175142</v>
+        <v>173.655603175143</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934272</v>
+        <v>62.99607278934306</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848481</v>
+        <v>12.10160432848488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483231</v>
+        <v>0.2211601019483243</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782919</v>
+        <v>1.479138582782927</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371925</v>
+        <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721893</v>
+        <v>50.92648190721921</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233634</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.848443869819</v>
+        <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117036</v>
+        <v>321.1612085117054</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375843</v>
+        <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721242</v>
+        <v>384.6992930721263</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536184</v>
+        <v>351.9246960536204</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122927</v>
+        <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022547</v>
+        <v>188.8107426022558</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103075</v>
+        <v>91.83634113103125</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020026</v>
+        <v>27.47435043020041</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603079</v>
+        <v>5.961966480603112</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729735</v>
+        <v>0.09731174886729788</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319876</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920763</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871046</v>
+        <v>37.29198919871067</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261522</v>
+        <v>87.6722490926157</v>
       </c>
       <c r="K7" t="n">
-        <v>144.072437109891</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966478</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619602</v>
+        <v>194.3850573619612</v>
       </c>
       <c r="N7" t="n">
-        <v>189.763015169859</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433949</v>
+        <v>175.2768585433959</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968693</v>
+        <v>149.9796324968701</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913307</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983732</v>
+        <v>55.75761141983762</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648365</v>
+        <v>21.61086556648377</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457651</v>
+        <v>5.298438610457679</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562968</v>
+        <v>0.06763964183563004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>168.9203199809851</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>98.29368706161284</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752001</v>
+        <v>53.58768550752129</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326323</v>
+        <v>131.5650779326342</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826381</v>
+        <v>200.4926198826404</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631462</v>
+        <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395865</v>
+        <v>263.8638100395892</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676327</v>
+        <v>235.6891526676352</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234345</v>
+        <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645044</v>
+        <v>76.22934711645203</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669674</v>
+        <v>12.9085321566975</v>
       </c>
       <c r="K6" t="n">
-        <v>101.00700489546</v>
+        <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318294</v>
+        <v>182.6068287318312</v>
       </c>
       <c r="M6" t="n">
-        <v>232.645948215566</v>
+        <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887909</v>
+        <v>253.357580988793</v>
       </c>
       <c r="O6" t="n">
-        <v>209.328451609174</v>
+        <v>209.3284516091759</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979625</v>
+        <v>148.476187397964</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375605</v>
+        <v>242.4789034375665</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840082</v>
+        <v>121.8029452840089</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569639</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238007</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490876</v>
+        <v>233.8951875490886</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574346</v>
+        <v>199.8619864574355</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617628</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963632</v>
+        <v>17.67608023963689</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326294871</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
